--- a/src/main/resources/xlsx/branch_list.xlsx
+++ b/src/main/resources/xlsx/branch_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2023S2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CABAEA2-29CC-4B6E-85CA-8D634B514C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAA2A11-D581-4477-A773-C95D04702A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -477,14 +477,14 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,247 +528,247 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
     </row>
   </sheetData>

--- a/src/main/resources/xlsx/branch_list.xlsx
+++ b/src/main/resources/xlsx/branch_list.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Documents/Github/SC2002-AY23-24-FOMS/src/main/resources/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D35B4-4645-374D-9F31-D94D09852944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Branches" r:id="rId3" sheetId="1"/>
+    <sheet name="Branches" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -39,18 +47,23 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>North Spine Plaza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -60,7 +73,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -78,18 +91,348 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -100,40 +443,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>15.0</v>
+      <c r="C3">
+        <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>11.0</v>
+      <c r="C4">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>1000000.0</v>
+      <c r="C5">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/xlsx/branch_list.xlsx
+++ b/src/main/resources/xlsx/branch_list.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Branches" r:id="rId3" sheetId="1"/>
+    <sheet r:id="rId1" sheetId="1" name="Branches"/>
   </sheets>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,30 +43,36 @@
     <t>Jurong east</t>
   </si>
   <si>
+    <t>JW</t>
+  </si>
+  <si>
+    <t>Jurong West</t>
+  </si>
+  <si>
     <t>UNASSIGNED</t>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>JW</t>
-  </si>
-  <si>
-    <t>Jurong West</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,10 +80,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -87,87 +102,403 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>8.0</v>
+      <c r="C2" s="3">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>15.0</v>
+      <c r="C3" s="3">
+        <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>11.0</v>
+      <c r="C4" s="3">
+        <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>1000000.0</v>
+      <c r="C5" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
-        <v>10.0</v>
+      <c r="C6" s="2">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>